--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\smallest_shelter_back\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keonho/smallestShelter/smallest_shelter_back/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F306E-3E41-420E-9233-68A975D63DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6C7FB5-A475-7841-B785-31407F7FBD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="630" windowWidth="11520" windowHeight="11295" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="2680" yWindow="640" windowWidth="18620" windowHeight="14900" tabRatio="845" activeTab="3" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="등록" sheetId="12" r:id="rId2"/>
     <sheet name="전체조회" sheetId="15" r:id="rId3"/>
-    <sheet name="전체 옷 조회" sheetId="5" r:id="rId4"/>
+    <sheet name="세부정보조회" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -865,23 +865,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1200,21 +1200,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="4" max="4" width="46.125" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
       <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
@@ -1319,17 +1319,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B385073-149F-4302-9EA6-580EFAC14519}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1627,7 +1627,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="1:5" ht="25.5">
+    <row r="28" spans="1:5" ht="28">
       <c r="A28" s="4"/>
       <c r="B28" s="7" t="s">
         <v>13</v>
@@ -1741,12 +1741,12 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1901,7 +1901,7 @@
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:5" ht="25.5">
+    <row r="17" spans="1:5" ht="28">
       <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
         <v>13</v>
@@ -1982,17 +1982,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5DCB-1B88-4FFB-8B45-74DF246FB3BF}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
@@ -2160,7 +2160,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:5" ht="25.5">
+    <row r="18" spans="1:5" ht="28">
       <c r="A18" s="4"/>
       <c r="B18" s="7" t="s">
         <v>13</v>
@@ -2189,13 +2189,13 @@
         <v>69</v>
       </c>
       <c r="D20" s="19"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="16" t="s">
@@ -2209,7 +2209,7 @@
       <c r="D22" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       <c r="A23" s="8"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="25" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -2297,7 +2297,7 @@
       <c r="D30" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
       <c r="D31" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>85</v>
       </c>
     </row>
